--- a/Tomo Blando SAI/Nuevo Hoja de cálculo de Microsoft Office Excel.xlsx
+++ b/Tomo Blando SAI/Nuevo Hoja de cálculo de Microsoft Office Excel.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="menu de opciones del sistema" sheetId="1" r:id="rId1"/>
     <sheet name="tablaa de PKI" sheetId="2" r:id="rId2"/>
     <sheet name="tabla DashBoar" sheetId="3" r:id="rId3"/>
+    <sheet name="evaluacion BD" sheetId="4" r:id="rId4"/>
+    <sheet name="evaluación framework" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="120">
   <si>
     <t>Nivel</t>
   </si>
@@ -277,13 +279,112 @@
   </si>
   <si>
     <t>Muestra información relacionada a ese año, mes y semana específica</t>
+  </si>
+  <si>
+    <t>Criterio</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Compatibilidad con el framework seleccionado (Laravel)</t>
+  </si>
+  <si>
+    <t>Tipo de licencia</t>
+  </si>
+  <si>
+    <t>Lenguajes de programación compatibles</t>
+  </si>
+  <si>
+    <t>Facilidad de respal de la base de datos</t>
+  </si>
+  <si>
+    <t>Facilidad para implementar procedimientos almacenados</t>
+  </si>
+  <si>
+    <t>compatible</t>
+  </si>
+  <si>
+    <t>PostgreSQL License</t>
+  </si>
+  <si>
+    <t>C, PHP, Perl, Ruby, Python, Java, C++</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Media-Alta</t>
+  </si>
+  <si>
+    <t>Comercial</t>
+  </si>
+  <si>
+    <t>GNU GPL</t>
+  </si>
+  <si>
+    <t>C, PHP, Perl, Ruby, Python, Java, C++, Fortan, Objective C, R, Visual Basic</t>
+  </si>
+  <si>
+    <t>C, C#, C++, Java, Objective C, Perl, PHP, Python, Ruby</t>
+  </si>
+  <si>
+    <t>Nivel de dificultad para configurar el framework</t>
+  </si>
+  <si>
+    <t>Nivel de abstración para la manipulación de los datos</t>
+  </si>
+  <si>
+    <t>Nivel de dificultad para efectuar pruebas en el sistema</t>
+  </si>
+  <si>
+    <t>Zend Framework</t>
+  </si>
+  <si>
+    <t>Laravel</t>
+  </si>
+  <si>
+    <t>Symfony</t>
+  </si>
+  <si>
+    <t>Nivel de seguridad de los datos</t>
+  </si>
+  <si>
+    <t>Documentación del Framework</t>
+  </si>
+  <si>
+    <t>Curva de aprendizaje del Framework</t>
+  </si>
+  <si>
+    <t>Positivo</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>Intermedio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +409,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -520,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -627,15 +734,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -643,22 +741,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -775,6 +861,109 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,18 +1279,18 @@
   <sheetData>
     <row r="3" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="4" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="89"/>
     </row>
     <row r="5" spans="4:13" ht="15.75" thickBot="1">
       <c r="D5" s="24" t="s">
@@ -1839,8 +2028,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" style="52" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" style="45" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -1849,368 +2038,368 @@
   <sheetData>
     <row r="2" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="50" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="90" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="56">
+      <c r="A5" s="49">
         <v>1</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A6" s="49">
+      <c r="A6" s="44">
         <v>2</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1">
-      <c r="A7" s="58">
+      <c r="A7" s="51">
         <v>3</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="49">
+      <c r="A8" s="44">
         <v>4</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66" t="s">
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:9" ht="29.25">
-      <c r="A9" s="58">
+      <c r="A9" s="51">
         <v>5</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="49">
+      <c r="A10" s="44">
         <v>6</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66" t="s">
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" spans="1:9" ht="29.25">
-      <c r="A11" s="58">
+      <c r="A11" s="51">
         <v>7</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:9" ht="29.25">
-      <c r="A12" s="49">
+      <c r="A12" s="44">
         <v>8</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
     </row>
     <row r="13" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A13" s="58">
+      <c r="A13" s="51">
         <v>9</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="14" spans="1:9" ht="29.25">
-      <c r="A14" s="49">
+      <c r="A14" s="44">
         <v>10</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66" t="s">
+      <c r="C14" s="58"/>
+      <c r="D14" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
     </row>
     <row r="15" spans="1:9" ht="29.25">
-      <c r="A15" s="58">
+      <c r="A15" s="51">
         <v>11</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
     </row>
     <row r="16" spans="1:9" ht="29.25">
-      <c r="A16" s="49">
+      <c r="A16" s="44">
         <v>12</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="67" t="s">
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
     </row>
     <row r="17" spans="1:9" ht="30" thickBot="1">
-      <c r="A17" s="60">
+      <c r="A17" s="53">
         <v>13</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73" t="s">
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="44"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="44"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="44"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="44"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="44"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="44"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="44"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="44"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="44"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="44"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2229,8 +2418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2242,160 +2431,160 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="15.75" thickBot="1">
-      <c r="J2" s="93">
+      <c r="J2" s="86">
         <v>0</v>
       </c>
-      <c r="K2" s="93">
+      <c r="K2" s="86">
         <v>0</v>
       </c>
-      <c r="L2" s="93">
+      <c r="L2" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="93">
+      <c r="J3" s="86">
         <v>0</v>
       </c>
-      <c r="K3" s="93">
+      <c r="K3" s="86">
         <v>0</v>
       </c>
-      <c r="L3" s="93">
+      <c r="L3" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="J4" s="93">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="J4" s="86">
         <v>0</v>
       </c>
-      <c r="K4" s="93">
+      <c r="K4" s="86">
         <v>1</v>
       </c>
-      <c r="L4" s="93">
+      <c r="L4" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-      <c r="J5" s="93">
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
+      <c r="J5" s="86">
         <v>0</v>
       </c>
-      <c r="K5" s="93">
+      <c r="K5" s="86">
         <v>1</v>
       </c>
-      <c r="L5" s="93">
+      <c r="L5" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="83"/>
-      <c r="J6" s="93">
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
+      <c r="J6" s="86">
         <v>1</v>
       </c>
-      <c r="K6" s="93">
+      <c r="K6" s="86">
         <v>0</v>
       </c>
-      <c r="L6" s="93">
+      <c r="L6" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="J7" s="93">
+      <c r="F7" s="79"/>
+      <c r="J7" s="86">
         <v>1</v>
       </c>
-      <c r="K7" s="93">
+      <c r="K7" s="86">
         <v>0</v>
       </c>
-      <c r="L7" s="93">
+      <c r="L7" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82" t="s">
+      <c r="C8" s="74"/>
+      <c r="D8" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="83"/>
-      <c r="J8" s="93">
+      <c r="F8" s="76"/>
+      <c r="J8" s="86">
         <v>1</v>
       </c>
-      <c r="K8" s="93">
+      <c r="K8" s="86">
         <v>1</v>
       </c>
-      <c r="L8" s="93">
+      <c r="L8" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85" t="s">
+      <c r="C9" s="77"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="79"/>
       <c r="J9">
         <v>1</v>
       </c>
@@ -2407,115 +2596,115 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82" t="s">
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="83"/>
+      <c r="F10" s="76"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86" t="s">
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="79" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="E12" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="92" t="s">
+      <c r="F12" s="85" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" thickBot="1"/>
     <row r="14" spans="2:12" ht="15.75" thickBot="1">
-      <c r="I14" s="87" t="s">
+      <c r="I14" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="87" t="s">
+      <c r="J14" s="80" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:12">
       <c r="D15" s="33"/>
-      <c r="I15" s="75" t="s">
+      <c r="I15" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="75" t="s">
+      <c r="J15" s="68" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="I16" s="75" t="s">
+      <c r="I16" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="J16" s="75" t="s">
+      <c r="J16" s="68" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17" spans="9:10">
-      <c r="I17" s="75" t="s">
+      <c r="I17" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="75" t="s">
+      <c r="J17" s="68" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="9:10">
-      <c r="I18" s="75" t="s">
+      <c r="I18" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="75" t="s">
+      <c r="J18" s="68" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="9:10">
-      <c r="I19" s="75" t="s">
+      <c r="I19" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="75" t="s">
+      <c r="J19" s="68" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="9:10">
-      <c r="I20" s="75" t="s">
+      <c r="I20" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="75" t="s">
+      <c r="J20" s="68" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="21" spans="9:10">
-      <c r="I21" s="75" t="s">
+      <c r="I21" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="75" t="s">
+      <c r="J21" s="68" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="9:10" ht="15.75" thickBot="1">
-      <c r="I22" s="74" t="s">
+      <c r="I22" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="J22" s="74" t="s">
+      <c r="J22" s="67" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2529,4 +2718,330 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C5:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="22.85546875" style="94" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="94" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="94" customWidth="1"/>
+    <col min="6" max="6" width="22" style="94" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="6" spans="3:6" ht="15.75" thickBot="1">
+      <c r="C6" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="96" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="42.75">
+      <c r="C7" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="104" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="57">
+      <c r="C9" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="28.5">
+      <c r="C10" s="102" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="57.75" thickBot="1">
+      <c r="C11" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C5:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="23" style="105" customWidth="1"/>
+    <col min="4" max="6" width="18.28515625" style="105" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24" style="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:11" ht="16.5" thickBot="1"/>
+    <row r="6" spans="3:11" thickBot="1">
+      <c r="C6" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="107" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" ht="45">
+      <c r="C7" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="108" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="108" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="108" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" ht="45">
+      <c r="C8" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="109" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" ht="30">
+      <c r="C9" s="114" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="110" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" ht="60">
+      <c r="C10" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="109" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" ht="30">
+      <c r="C11" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="110" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" ht="30.75" thickBot="1">
+      <c r="C12" s="116" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="111" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" ht="16.5" thickBot="1"/>
+    <row r="15" spans="3:11" ht="16.5" thickBot="1">
+      <c r="H15" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="106" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" s="106" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" ht="45">
+      <c r="H16" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="118" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="118" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11" ht="45">
+      <c r="H17" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11" ht="30">
+      <c r="H18" s="114" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11" ht="45">
+      <c r="H19" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="119" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11" ht="30">
+      <c r="H20" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11" ht="30.75" thickBot="1">
+      <c r="H21" s="116" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="121" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>